--- a/data/VIC_COVID19_DAILY_DATA.xlsx
+++ b/data/VIC_COVID19_DAILY_DATA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7DF752-BE76-4AFD-9331-5C5C4BAC702B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E61380D-B4A0-4E20-B869-4B89D354CBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,6 +2300,32 @@
         <v>5076</v>
       </c>
     </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>44878</v>
+      </c>
+      <c r="B75">
+        <v>2448</v>
+      </c>
+      <c r="C75">
+        <v>509</v>
+      </c>
+      <c r="D75">
+        <v>1939</v>
+      </c>
+      <c r="E75">
+        <v>340</v>
+      </c>
+      <c r="F75">
+        <v>8</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>4468</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/VIC_COVID19_DAILY_DATA.xlsx
+++ b/data/VIC_COVID19_DAILY_DATA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E61380D-B4A0-4E20-B869-4B89D354CBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B904A87B-57DB-42FA-A6EC-B4302A393EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15570" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2326,6 +2326,32 @@
         <v>4468</v>
       </c>
     </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>44879</v>
+      </c>
+      <c r="B76">
+        <v>3192</v>
+      </c>
+      <c r="C76">
+        <v>533</v>
+      </c>
+      <c r="D76">
+        <v>2659</v>
+      </c>
+      <c r="E76">
+        <v>351</v>
+      </c>
+      <c r="F76">
+        <v>9</v>
+      </c>
+      <c r="G76">
+        <v>11</v>
+      </c>
+      <c r="H76">
+        <v>5208</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/VIC_COVID19_DAILY_DATA.xlsx
+++ b/data/VIC_COVID19_DAILY_DATA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B904A87B-57DB-42FA-A6EC-B4302A393EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D5D3F8-0E1F-4050-889B-85AC8AA2D3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15570" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="9600" windowHeight="2745" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2352,6 +2352,32 @@
         <v>5208</v>
       </c>
     </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>44880</v>
+      </c>
+      <c r="B77">
+        <v>3452</v>
+      </c>
+      <c r="C77">
+        <v>946</v>
+      </c>
+      <c r="D77">
+        <v>2506</v>
+      </c>
+      <c r="E77">
+        <v>369</v>
+      </c>
+      <c r="F77">
+        <v>7</v>
+      </c>
+      <c r="G77">
+        <v>10</v>
+      </c>
+      <c r="H77">
+        <v>7722</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/VIC_COVID19_DAILY_DATA.xlsx
+++ b/data/VIC_COVID19_DAILY_DATA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D5D3F8-0E1F-4050-889B-85AC8AA2D3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2929F811-4A2D-4D87-8EAE-A24103DC85FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="9600" windowHeight="2745" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,6 +2378,35 @@
         <v>7722</v>
       </c>
     </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>44881</v>
+      </c>
+      <c r="B78">
+        <v>3250</v>
+      </c>
+      <c r="C78">
+        <v>928</v>
+      </c>
+      <c r="D78">
+        <v>2322</v>
+      </c>
+      <c r="E78">
+        <v>368</v>
+      </c>
+      <c r="F78">
+        <v>11</v>
+      </c>
+      <c r="G78">
+        <v>8</v>
+      </c>
+      <c r="H78">
+        <v>7304</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/VIC_COVID19_DAILY_DATA.xlsx
+++ b/data/VIC_COVID19_DAILY_DATA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2929F811-4A2D-4D87-8EAE-A24103DC85FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F9A5C7-C8E0-419B-8C30-95EE3EF3851F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
+    <workbookView xWindow="30" yWindow="630" windowWidth="28770" windowHeight="15570" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2405,7 +2405,30 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
+      <c r="A79" s="1">
+        <v>44882</v>
+      </c>
+      <c r="B79">
+        <v>3225</v>
+      </c>
+      <c r="C79">
+        <v>845</v>
+      </c>
+      <c r="D79">
+        <v>2380</v>
+      </c>
+      <c r="E79">
+        <v>359</v>
+      </c>
+      <c r="F79">
+        <v>16</v>
+      </c>
+      <c r="G79">
+        <v>10</v>
+      </c>
+      <c r="H79">
+        <v>7205</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/VIC_COVID19_DAILY_DATA.xlsx
+++ b/data/VIC_COVID19_DAILY_DATA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F9A5C7-C8E0-419B-8C30-95EE3EF3851F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123702A3-9CD9-4F53-9362-E41D0CC7BE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="630" windowWidth="28770" windowHeight="15570" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2430,6 +2430,32 @@
         <v>7205</v>
       </c>
     </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>44883</v>
+      </c>
+      <c r="B80">
+        <v>2634</v>
+      </c>
+      <c r="C80">
+        <v>595</v>
+      </c>
+      <c r="D80">
+        <v>2039</v>
+      </c>
+      <c r="E80">
+        <v>365</v>
+      </c>
+      <c r="F80">
+        <v>11</v>
+      </c>
+      <c r="G80">
+        <v>19</v>
+      </c>
+      <c r="H80">
+        <v>5768</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/VIC_COVID19_DAILY_DATA.xlsx
+++ b/data/VIC_COVID19_DAILY_DATA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123702A3-9CD9-4F53-9362-E41D0CC7BE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCE68BF-D9B5-4AA1-ACEE-DA1420B93C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2456,6 +2456,32 @@
         <v>5768</v>
       </c>
     </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B81">
+        <v>2407</v>
+      </c>
+      <c r="C81">
+        <v>626</v>
+      </c>
+      <c r="D81">
+        <v>1781</v>
+      </c>
+      <c r="E81">
+        <v>387</v>
+      </c>
+      <c r="F81">
+        <v>14</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>5489</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/VIC_COVID19_DAILY_DATA.xlsx
+++ b/data/VIC_COVID19_DAILY_DATA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCE68BF-D9B5-4AA1-ACEE-DA1420B93C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA48D03-DBAA-40F7-8119-8E2A9766E935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15570" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2482,6 +2482,32 @@
         <v>5489</v>
       </c>
     </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>44885</v>
+      </c>
+      <c r="B82">
+        <v>2561</v>
+      </c>
+      <c r="C82">
+        <v>494</v>
+      </c>
+      <c r="D82">
+        <v>2067</v>
+      </c>
+      <c r="E82">
+        <v>389</v>
+      </c>
+      <c r="F82">
+        <v>11</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>4372</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/VIC_COVID19_DAILY_DATA.xlsx
+++ b/data/VIC_COVID19_DAILY_DATA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA48D03-DBAA-40F7-8119-8E2A9766E935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BED055-018D-4BDD-A879-AD7B80B46D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15570" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2508,6 +2508,32 @@
         <v>4372</v>
       </c>
     </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>44886</v>
+      </c>
+      <c r="B83">
+        <v>3807</v>
+      </c>
+      <c r="C83">
+        <v>675</v>
+      </c>
+      <c r="D83">
+        <v>3132</v>
+      </c>
+      <c r="E83">
+        <v>419</v>
+      </c>
+      <c r="F83">
+        <v>15</v>
+      </c>
+      <c r="G83">
+        <v>27</v>
+      </c>
+      <c r="H83">
+        <v>6203</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/VIC_COVID19_DAILY_DATA.xlsx
+++ b/data/VIC_COVID19_DAILY_DATA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BED055-018D-4BDD-A879-AD7B80B46D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FCE44B-CD90-43E5-AE52-75FF90806F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+      <selection activeCell="P76" sqref="P76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2534,6 +2534,32 @@
         <v>6203</v>
       </c>
     </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>44887</v>
+      </c>
+      <c r="B84">
+        <v>3861</v>
+      </c>
+      <c r="C84">
+        <v>865</v>
+      </c>
+      <c r="D84">
+        <v>2996</v>
+      </c>
+      <c r="E84">
+        <v>489</v>
+      </c>
+      <c r="F84">
+        <v>18</v>
+      </c>
+      <c r="G84">
+        <v>7</v>
+      </c>
+      <c r="H84">
+        <v>7632</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/VIC_COVID19_DAILY_DATA.xlsx
+++ b/data/VIC_COVID19_DAILY_DATA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FCE44B-CD90-43E5-AE52-75FF90806F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A60B478-1755-48F9-87F6-DA30776ECC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
+    <workbookView xWindow="17565" yWindow="3300" windowWidth="28770" windowHeight="15570" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="P76" sqref="P76"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2560,6 +2560,32 @@
         <v>7632</v>
       </c>
     </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>44888</v>
+      </c>
+      <c r="B85">
+        <v>3840</v>
+      </c>
+      <c r="C85">
+        <v>813</v>
+      </c>
+      <c r="D85">
+        <v>3027</v>
+      </c>
+      <c r="E85">
+        <v>483</v>
+      </c>
+      <c r="F85">
+        <v>20</v>
+      </c>
+      <c r="G85">
+        <v>12</v>
+      </c>
+      <c r="H85">
+        <v>7074</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/VIC_COVID19_DAILY_DATA.xlsx
+++ b/data/VIC_COVID19_DAILY_DATA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A60B478-1755-48F9-87F6-DA30776ECC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D56A54-4A09-4593-9845-7D3AC60CEBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17565" yWindow="3300" windowWidth="28770" windowHeight="15570" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
+    <workbookView xWindow="-3435" yWindow="510" windowWidth="9600" windowHeight="2745" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2586,6 +2586,32 @@
         <v>7074</v>
       </c>
     </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>44889</v>
+      </c>
+      <c r="B86">
+        <v>3919</v>
+      </c>
+      <c r="C86">
+        <v>934</v>
+      </c>
+      <c r="D86">
+        <v>2985</v>
+      </c>
+      <c r="E86">
+        <v>483</v>
+      </c>
+      <c r="F86">
+        <v>19</v>
+      </c>
+      <c r="G86">
+        <v>8</v>
+      </c>
+      <c r="H86">
+        <v>7740</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/VIC_COVID19_DAILY_DATA.xlsx
+++ b/data/VIC_COVID19_DAILY_DATA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D56A54-4A09-4593-9845-7D3AC60CEBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDCA508-8082-420D-B2A8-189F32686174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3435" yWindow="510" windowWidth="9600" windowHeight="2745" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
+    <workbookView xWindow="49620" yWindow="6990" windowWidth="9600" windowHeight="2745" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2612,6 +2612,32 @@
         <v>7740</v>
       </c>
     </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>44890</v>
+      </c>
+      <c r="B87">
+        <v>3695</v>
+      </c>
+      <c r="C87">
+        <v>811</v>
+      </c>
+      <c r="D87">
+        <v>2884</v>
+      </c>
+      <c r="E87">
+        <v>502</v>
+      </c>
+      <c r="F87">
+        <v>18</v>
+      </c>
+      <c r="G87">
+        <v>10</v>
+      </c>
+      <c r="H87">
+        <v>7264</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/VIC_COVID19_DAILY_DATA.xlsx
+++ b/data/VIC_COVID19_DAILY_DATA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDCA508-8082-420D-B2A8-189F32686174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CEC189-2D50-4C87-A261-D95A00B51EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49620" yWindow="6990" windowWidth="9600" windowHeight="2745" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2638,6 +2638,32 @@
         <v>7264</v>
       </c>
     </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B88">
+        <v>3427</v>
+      </c>
+      <c r="C88">
+        <v>749</v>
+      </c>
+      <c r="D88">
+        <v>2678</v>
+      </c>
+      <c r="E88">
+        <v>489</v>
+      </c>
+      <c r="F88">
+        <v>23</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>5748</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/VIC_COVID19_DAILY_DATA.xlsx
+++ b/data/VIC_COVID19_DAILY_DATA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CEC189-2D50-4C87-A261-D95A00B51EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAA473C-8CDF-42DF-A863-7B2885594DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2664,6 +2664,32 @@
         <v>5748</v>
       </c>
     </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>44892</v>
+      </c>
+      <c r="B89">
+        <v>3151</v>
+      </c>
+      <c r="C89">
+        <v>588</v>
+      </c>
+      <c r="D89">
+        <v>2563</v>
+      </c>
+      <c r="E89">
+        <v>529</v>
+      </c>
+      <c r="F89">
+        <v>25</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>4504</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/VIC_COVID19_DAILY_DATA.xlsx
+++ b/data/VIC_COVID19_DAILY_DATA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAA473C-8CDF-42DF-A863-7B2885594DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14553DFA-E3F0-4343-B7A9-1C83138ACA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2690,6 +2690,32 @@
         <v>4504</v>
       </c>
     </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>44893</v>
+      </c>
+      <c r="B90">
+        <v>4149</v>
+      </c>
+      <c r="C90">
+        <v>640</v>
+      </c>
+      <c r="D90">
+        <v>3509</v>
+      </c>
+      <c r="E90">
+        <v>551</v>
+      </c>
+      <c r="F90">
+        <v>22</v>
+      </c>
+      <c r="G90">
+        <v>19</v>
+      </c>
+      <c r="H90">
+        <v>6016</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/VIC_COVID19_DAILY_DATA.xlsx
+++ b/data/VIC_COVID19_DAILY_DATA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14553DFA-E3F0-4343-B7A9-1C83138ACA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AF34FE-93A1-4661-8714-98482D1069FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2716,6 +2716,32 @@
         <v>6016</v>
       </c>
     </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>44894</v>
+      </c>
+      <c r="B91">
+        <v>4378</v>
+      </c>
+      <c r="C91">
+        <v>1128</v>
+      </c>
+      <c r="D91">
+        <v>3250</v>
+      </c>
+      <c r="E91">
+        <v>578</v>
+      </c>
+      <c r="F91">
+        <v>22</v>
+      </c>
+      <c r="G91">
+        <v>5</v>
+      </c>
+      <c r="H91">
+        <v>8596</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/VIC_COVID19_DAILY_DATA.xlsx
+++ b/data/VIC_COVID19_DAILY_DATA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AF34FE-93A1-4661-8714-98482D1069FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53F413B-D1FC-4273-ABAA-30E6D5A6DFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2742,6 +2742,32 @@
         <v>8596</v>
       </c>
     </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B92">
+        <v>4302</v>
+      </c>
+      <c r="C92">
+        <v>1046</v>
+      </c>
+      <c r="D92">
+        <v>3256</v>
+      </c>
+      <c r="E92">
+        <v>601</v>
+      </c>
+      <c r="F92">
+        <v>21</v>
+      </c>
+      <c r="G92">
+        <v>13</v>
+      </c>
+      <c r="H92">
+        <v>7888</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/VIC_COVID19_DAILY_DATA.xlsx
+++ b/data/VIC_COVID19_DAILY_DATA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53F413B-D1FC-4273-ABAA-30E6D5A6DFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEF8E92-F2D0-4282-A99C-7C0A93D54A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
+    <workbookView xWindow="16005" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2768,6 +2768,110 @@
         <v>7888</v>
       </c>
     </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B93">
+        <v>3856</v>
+      </c>
+      <c r="C93">
+        <v>1053</v>
+      </c>
+      <c r="D93">
+        <v>2803</v>
+      </c>
+      <c r="E93">
+        <v>625</v>
+      </c>
+      <c r="F93">
+        <v>28</v>
+      </c>
+      <c r="G93">
+        <v>5</v>
+      </c>
+      <c r="H93">
+        <v>7762</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>44897</v>
+      </c>
+      <c r="B94">
+        <v>4211</v>
+      </c>
+      <c r="C94">
+        <v>990</v>
+      </c>
+      <c r="D94">
+        <v>3221</v>
+      </c>
+      <c r="E94">
+        <v>579</v>
+      </c>
+      <c r="F94">
+        <v>21</v>
+      </c>
+      <c r="G94">
+        <v>20</v>
+      </c>
+      <c r="H94">
+        <v>7930</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>44898</v>
+      </c>
+      <c r="B95">
+        <v>3173</v>
+      </c>
+      <c r="C95">
+        <v>874</v>
+      </c>
+      <c r="D95">
+        <v>2299</v>
+      </c>
+      <c r="E95">
+        <v>620</v>
+      </c>
+      <c r="F95">
+        <v>22</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>6085</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>44899</v>
+      </c>
+      <c r="B96">
+        <v>3111</v>
+      </c>
+      <c r="C96">
+        <v>532</v>
+      </c>
+      <c r="D96">
+        <v>2579</v>
+      </c>
+      <c r="E96">
+        <v>703</v>
+      </c>
+      <c r="F96">
+        <v>29</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>4157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/VIC_COVID19_DAILY_DATA.xlsx
+++ b/data/VIC_COVID19_DAILY_DATA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEF8E92-F2D0-4282-A99C-7C0A93D54A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D63AA54-195D-4846-9209-6D338C566CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16005" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2872,6 +2872,32 @@
         <v>4157</v>
       </c>
     </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>44900</v>
+      </c>
+      <c r="B97">
+        <v>4843</v>
+      </c>
+      <c r="C97">
+        <v>860</v>
+      </c>
+      <c r="D97">
+        <v>3983</v>
+      </c>
+      <c r="E97">
+        <v>720</v>
+      </c>
+      <c r="F97">
+        <v>35</v>
+      </c>
+      <c r="G97">
+        <v>20</v>
+      </c>
+      <c r="H97">
+        <v>6830</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/VIC_COVID19_DAILY_DATA.xlsx
+++ b/data/VIC_COVID19_DAILY_DATA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D63AA54-195D-4846-9209-6D338C566CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08DD9DC-502C-41F4-9756-1ED62B7BC679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
+    <workbookView xWindow="46380" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2898,6 +2898,32 @@
         <v>6830</v>
       </c>
     </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>44901</v>
+      </c>
+      <c r="B98">
+        <v>4377</v>
+      </c>
+      <c r="C98">
+        <v>1165</v>
+      </c>
+      <c r="D98">
+        <v>3212</v>
+      </c>
+      <c r="E98">
+        <v>731</v>
+      </c>
+      <c r="F98">
+        <v>32</v>
+      </c>
+      <c r="G98">
+        <v>20</v>
+      </c>
+      <c r="H98">
+        <v>8505</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/VIC_COVID19_DAILY_DATA.xlsx
+++ b/data/VIC_COVID19_DAILY_DATA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08DD9DC-502C-41F4-9756-1ED62B7BC679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432E711F-6490-4677-AF31-6E3E8035AB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46380" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2924,6 +2924,32 @@
         <v>8505</v>
       </c>
     </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>44902</v>
+      </c>
+      <c r="B99">
+        <v>4284</v>
+      </c>
+      <c r="C99">
+        <v>1059</v>
+      </c>
+      <c r="D99">
+        <v>3225</v>
+      </c>
+      <c r="E99">
+        <v>712</v>
+      </c>
+      <c r="F99">
+        <v>29</v>
+      </c>
+      <c r="G99">
+        <v>20</v>
+      </c>
+      <c r="H99">
+        <v>8410</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
